--- a/kiuchismmap/kiuchismmap.xlsx
+++ b/kiuchismmap/kiuchismmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\木津\Development\imaging-tools\kiuchismmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB61723-264C-42B4-9598-AC2DC691009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68477DD4-57E7-4066-A182-35784F4B8A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9CD2D1BE-878D-4C79-AA21-B5B081B4529C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>D=15</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count&gt;=1lp/mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg.mtf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -502,14 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B229C67-3BB7-42CF-BA6F-3BA69B2B8C41}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
+    <col min="1" max="1" width="15.1875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="11.3125" bestFit="1" customWidth="1"/>
   </cols>
@@ -998,6 +1007,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.80443091249999998</v>
+      </c>
+      <c r="C10">
+        <v>0.79089477580000001</v>
+      </c>
+      <c r="D10">
+        <v>0.52957137681818101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <f>B2 * 51513 / ((30/35)*36)</f>
+        <v>175287.29166666669</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
